--- a/forms/app/pregnancy_family_planning.xlsx
+++ b/forms/app/pregnancy_family_planning.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2367" uniqueCount="1326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="1326">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -138,6 +138,9 @@
     <t xml:space="preserve">contact</t>
   </si>
   <si>
+    <t xml:space="preserve">NO_LABEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">db:person</t>
   </si>
   <si>
@@ -448,9 +451,6 @@
   </si>
   <si>
     <t xml:space="preserve">dif_anc_1_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO_LABEL</t>
   </si>
   <si>
     <t xml:space="preserve">floor(decimal-date-time(coalesce(${s_anc_1_date}, ${s_anc_next_anc})) - decimal-date-time(today()))</t>
@@ -812,7 +812,7 @@
     <t xml:space="preserve">Est-ce que la CPN 1 est effectuée?</t>
   </si>
   <si>
-    <t xml:space="preserve">horizontal</t>
+    <t xml:space="preserve">columns</t>
   </si>
   <si>
     <t xml:space="preserve">s_anc_1_already_done</t>
@@ -5118,19 +5118,18 @@
   <dimension ref="A1:AS1218"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C187" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C319" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A187" activeCellId="0" sqref="A187"/>
-      <selection pane="bottomRight" activeCell="B226" activeCellId="0" sqref="B226"/>
+      <selection pane="bottomLeft" activeCell="A319" activeCellId="0" sqref="A319"/>
+      <selection pane="bottomRight" activeCell="D336" activeCellId="0" sqref="D336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="37.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="38.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="68.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="35.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.85"/>
@@ -5417,8 +5416,12 @@
       <c r="B7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -5445,41 +5448,41 @@
     </row>
     <row r="8" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="7"/>
       <c r="K8" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
@@ -5500,10 +5503,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
@@ -5536,13 +5539,13 @@
         <v>22</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -5577,13 +5580,13 @@
         <v>22</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
@@ -5616,13 +5619,13 @@
         <v>22</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -5652,7 +5655,7 @@
     </row>
     <row r="13" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -5683,7 +5686,7 @@
     </row>
     <row r="14" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -5714,13 +5717,13 @@
     </row>
     <row r="15" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="16"/>
@@ -5736,7 +5739,7 @@
       <c r="M15" s="17"/>
       <c r="N15" s="16"/>
       <c r="O15" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
@@ -5753,13 +5756,13 @@
     </row>
     <row r="16" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="16"/>
@@ -5775,7 +5778,7 @@
       <c r="M16" s="17"/>
       <c r="N16" s="16"/>
       <c r="O16" s="15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P16" s="17"/>
       <c r="Q16" s="17"/>
@@ -5792,13 +5795,13 @@
     </row>
     <row r="17" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="16"/>
@@ -5812,7 +5815,7 @@
       <c r="M17" s="16"/>
       <c r="N17" s="16"/>
       <c r="O17" s="15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P17" s="17"/>
       <c r="Q17" s="17"/>
@@ -5829,10 +5832,10 @@
     </row>
     <row r="18" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C18" s="18"/>
       <c r="D18" s="19"/>
@@ -5847,7 +5850,7 @@
       <c r="M18" s="21"/>
       <c r="N18" s="20"/>
       <c r="O18" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P18" s="20"/>
       <c r="Q18" s="21"/>
@@ -5864,10 +5867,10 @@
     </row>
     <row r="19" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C19" s="18"/>
       <c r="D19" s="19"/>
@@ -5882,7 +5885,7 @@
       <c r="M19" s="21"/>
       <c r="N19" s="20"/>
       <c r="O19" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P19" s="20"/>
       <c r="Q19" s="21"/>
@@ -5899,16 +5902,16 @@
     </row>
     <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -5918,7 +5921,7 @@
       <c r="M20" s="6"/>
       <c r="N20" s="7"/>
       <c r="O20" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
@@ -5935,16 +5938,16 @@
     </row>
     <row r="21" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -5957,7 +5960,7 @@
       <c r="M21" s="6"/>
       <c r="N21" s="7"/>
       <c r="O21" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
@@ -5974,16 +5977,16 @@
     </row>
     <row r="22" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
@@ -5996,7 +5999,7 @@
       <c r="M22" s="21"/>
       <c r="N22" s="20"/>
       <c r="O22" s="18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P22" s="20"/>
       <c r="Q22" s="21"/>
@@ -6013,16 +6016,16 @@
     </row>
     <row r="23" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
@@ -6035,7 +6038,7 @@
       <c r="M23" s="21"/>
       <c r="N23" s="20"/>
       <c r="O23" s="18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P23" s="20"/>
       <c r="Q23" s="21"/>
@@ -6052,16 +6055,16 @@
     </row>
     <row r="24" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
@@ -6074,7 +6077,7 @@
       <c r="M24" s="21"/>
       <c r="N24" s="20"/>
       <c r="O24" s="18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P24" s="20"/>
       <c r="Q24" s="21"/>
@@ -6091,19 +6094,19 @@
     </row>
     <row r="25" customFormat="false" ht="15.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
@@ -6115,7 +6118,7 @@
       <c r="M25" s="21"/>
       <c r="N25" s="20"/>
       <c r="O25" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P25" s="20"/>
       <c r="Q25" s="21"/>
@@ -6132,10 +6135,10 @@
     </row>
     <row r="26" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>34</v>
@@ -6154,7 +6157,7 @@
       <c r="M26" s="25"/>
       <c r="N26" s="21"/>
       <c r="O26" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
@@ -6171,16 +6174,16 @@
     </row>
     <row r="27" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
@@ -6193,7 +6196,7 @@
       <c r="M27" s="25"/>
       <c r="N27" s="21"/>
       <c r="O27" s="25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
@@ -6210,16 +6213,16 @@
     </row>
     <row r="28" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
@@ -6232,7 +6235,7 @@
       <c r="M28" s="25"/>
       <c r="N28" s="21"/>
       <c r="O28" s="25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
@@ -6249,13 +6252,13 @@
     </row>
     <row r="29" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
@@ -6269,7 +6272,7 @@
       <c r="M29" s="25"/>
       <c r="N29" s="21"/>
       <c r="O29" s="25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
@@ -6286,13 +6289,13 @@
     </row>
     <row r="30" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
@@ -6306,7 +6309,7 @@
       <c r="M30" s="25"/>
       <c r="N30" s="21"/>
       <c r="O30" s="25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
@@ -6323,13 +6326,13 @@
     </row>
     <row r="31" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
@@ -6343,7 +6346,7 @@
       <c r="M31" s="25"/>
       <c r="N31" s="21"/>
       <c r="O31" s="25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P31" s="21"/>
       <c r="Q31" s="21"/>
@@ -6360,13 +6363,13 @@
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B32" s="25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C32" s="25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="21"/>
@@ -6380,7 +6383,7 @@
       <c r="M32" s="25"/>
       <c r="N32" s="21"/>
       <c r="O32" s="25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P32" s="21"/>
       <c r="Q32" s="21"/>
@@ -6397,13 +6400,13 @@
     </row>
     <row r="33" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B33" s="25" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C33" s="25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="21"/>
@@ -6417,7 +6420,7 @@
       <c r="M33" s="25"/>
       <c r="N33" s="21"/>
       <c r="O33" s="25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
@@ -6434,13 +6437,13 @@
     </row>
     <row r="34" s="28" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
@@ -6454,7 +6457,7 @@
       <c r="M34" s="26"/>
       <c r="N34" s="27"/>
       <c r="O34" s="26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P34" s="27"/>
       <c r="Q34" s="27"/>
@@ -6471,13 +6474,13 @@
     </row>
     <row r="35" s="28" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C35" s="26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
@@ -6491,7 +6494,7 @@
       <c r="M35" s="26"/>
       <c r="N35" s="27"/>
       <c r="O35" s="26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P35" s="27"/>
       <c r="Q35" s="27"/>
@@ -6537,13 +6540,13 @@
     </row>
     <row r="37" s="28" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D37" s="27"/>
       <c r="E37" s="27"/>
@@ -6557,7 +6560,7 @@
       <c r="M37" s="26"/>
       <c r="N37" s="27"/>
       <c r="O37" s="26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P37" s="27"/>
       <c r="Q37" s="27"/>
@@ -6574,13 +6577,13 @@
     </row>
     <row r="38" s="28" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D38" s="27"/>
       <c r="E38" s="27"/>
@@ -6594,7 +6597,7 @@
       <c r="M38" s="26"/>
       <c r="N38" s="27"/>
       <c r="O38" s="26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P38" s="27"/>
       <c r="Q38" s="27"/>
@@ -6611,10 +6614,10 @@
     </row>
     <row r="39" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C39" s="25"/>
       <c r="D39" s="21"/>
@@ -6629,7 +6632,7 @@
       <c r="M39" s="25"/>
       <c r="N39" s="21"/>
       <c r="O39" s="25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P39" s="21"/>
       <c r="Q39" s="21"/>
@@ -6646,10 +6649,10 @@
     </row>
     <row r="40" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C40" s="25"/>
       <c r="D40" s="21"/>
@@ -6664,7 +6667,7 @@
       <c r="M40" s="25"/>
       <c r="N40" s="21"/>
       <c r="O40" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P40" s="21"/>
       <c r="Q40" s="21"/>
@@ -6681,10 +6684,10 @@
     </row>
     <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B41" s="25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C41" s="25"/>
       <c r="D41" s="21"/>
@@ -6699,7 +6702,7 @@
       <c r="M41" s="25"/>
       <c r="N41" s="21"/>
       <c r="O41" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P41" s="21"/>
       <c r="Q41" s="21"/>
@@ -6716,10 +6719,10 @@
     </row>
     <row r="42" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C42" s="25"/>
       <c r="D42" s="21"/>
@@ -6734,7 +6737,7 @@
       <c r="M42" s="25"/>
       <c r="N42" s="21"/>
       <c r="O42" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P42" s="21"/>
       <c r="Q42" s="21"/>
@@ -6751,10 +6754,10 @@
     </row>
     <row r="43" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C43" s="25"/>
       <c r="D43" s="21"/>
@@ -6769,7 +6772,7 @@
       <c r="M43" s="25"/>
       <c r="N43" s="21"/>
       <c r="O43" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P43" s="21"/>
       <c r="Q43" s="21"/>
@@ -6786,10 +6789,10 @@
     </row>
     <row r="44" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C44" s="25"/>
       <c r="D44" s="21"/>
@@ -6804,7 +6807,7 @@
       <c r="M44" s="25"/>
       <c r="N44" s="21"/>
       <c r="O44" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P44" s="21"/>
       <c r="Q44" s="21"/>
@@ -6821,16 +6824,16 @@
     </row>
     <row r="45" s="29" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C45" s="29" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="L45" s="30"/>
       <c r="O45" s="29" t="s">
@@ -6839,16 +6842,16 @@
     </row>
     <row r="46" s="31" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B46" s="31" t="s">
         <v>143</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="O46" s="32" t="s">
         <v>144</v>
@@ -6856,16 +6859,16 @@
     </row>
     <row r="47" s="33" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="33" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B47" s="33" t="s">
         <v>145</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="D47" s="33" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="O47" s="34" t="s">
         <v>146</v>
@@ -6924,7 +6927,7 @@
         <v>153</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F49" s="35" t="s">
         <v>154</v>
@@ -6955,7 +6958,7 @@
     </row>
     <row r="50" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -7074,7 +7077,7 @@
         <v>166</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>154</v>
@@ -7117,7 +7120,7 @@
         <v>169</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>154</v>
@@ -7162,7 +7165,7 @@
         <v>173</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>154</v>
@@ -7207,7 +7210,7 @@
         <v>177</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>154</v>
@@ -7252,7 +7255,7 @@
         <v>181</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>154</v>
@@ -7297,7 +7300,7 @@
         <v>185</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>154</v>
@@ -7330,16 +7333,16 @@
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>187</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="35"/>
@@ -7369,16 +7372,16 @@
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>189</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="35"/>
@@ -7420,7 +7423,7 @@
         <v>193</v>
       </c>
       <c r="E61" s="35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F61" s="35" t="s">
         <v>154</v>
@@ -7465,7 +7468,7 @@
         <v>198</v>
       </c>
       <c r="E62" s="35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F62" s="35" t="s">
         <v>154</v>
@@ -7510,7 +7513,7 @@
         <v>203</v>
       </c>
       <c r="E63" s="35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F63" s="35" t="s">
         <v>154</v>
@@ -7555,7 +7558,7 @@
         <v>208</v>
       </c>
       <c r="E64" s="35" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F64" s="35" t="s">
         <v>154</v>
@@ -7588,7 +7591,7 @@
     </row>
     <row r="65" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -7672,7 +7675,7 @@
         <v>216</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F67" s="35" t="s">
         <v>154</v>
@@ -7715,7 +7718,7 @@
         <v>220</v>
       </c>
       <c r="E68" s="38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F68" s="38" t="s">
         <v>154</v>
@@ -7766,7 +7769,7 @@
         <v>228</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F69" s="35" t="s">
         <v>154</v>
@@ -7799,16 +7802,16 @@
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
@@ -7838,16 +7841,16 @@
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>232</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
@@ -7877,16 +7880,16 @@
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>234</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
@@ -7916,16 +7919,16 @@
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>236</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="E73" s="10"/>
       <c r="F73" s="10"/>
@@ -7955,13 +7958,13 @@
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>238</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="D74" s="6"/>
       <c r="E74" s="10"/>
@@ -7992,16 +7995,16 @@
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>240</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="E75" s="10"/>
       <c r="F75" s="10"/>
@@ -8043,7 +8046,7 @@
         <v>244</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F76" s="35" t="s">
         <v>154</v>
@@ -8084,9 +8087,7 @@
       <c r="D77" s="43" t="s">
         <v>247</v>
       </c>
-      <c r="E77" s="7" t="s">
-        <v>91</v>
-      </c>
+      <c r="E77" s="7"/>
       <c r="F77" s="35" t="s">
         <v>154</v>
       </c>
@@ -8118,7 +8119,7 @@
     </row>
     <row r="78" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -8182,7 +8183,7 @@
         <v>255</v>
       </c>
       <c r="E80" s="48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F80" s="20" t="s">
         <v>154</v>
@@ -8209,7 +8210,7 @@
         <v>259</v>
       </c>
       <c r="E81" s="48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F81" s="20" t="s">
         <v>154</v>
@@ -8241,7 +8242,7 @@
         <v>265</v>
       </c>
       <c r="E82" s="48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F82" s="20" t="s">
         <v>154</v>
@@ -8270,7 +8271,7 @@
         <v>269</v>
       </c>
       <c r="E83" s="48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F83" s="20" t="s">
         <v>154</v>
@@ -8296,7 +8297,7 @@
         <v>273</v>
       </c>
       <c r="E84" s="48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F84" s="20" t="s">
         <v>154</v>
@@ -8343,7 +8344,7 @@
         <v>280</v>
       </c>
       <c r="E86" s="48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F86" s="20" t="s">
         <v>154</v>
@@ -8378,7 +8379,7 @@
         <v>286</v>
       </c>
       <c r="E87" s="48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F87" s="20" t="s">
         <v>154</v>
@@ -8413,7 +8414,7 @@
         <v>290</v>
       </c>
       <c r="E88" s="48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F88" s="20" t="s">
         <v>154</v>
@@ -8436,7 +8437,7 @@
     </row>
     <row r="89" s="45" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B89" s="44"/>
       <c r="C89" s="44"/>
@@ -8513,7 +8514,7 @@
         <v>304</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8530,7 +8531,7 @@
         <v>307</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8547,7 +8548,7 @@
         <v>310</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8564,7 +8565,7 @@
         <v>313</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8581,7 +8582,7 @@
         <v>316</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8598,7 +8599,7 @@
         <v>319</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8615,7 +8616,7 @@
         <v>322</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8632,7 +8633,7 @@
         <v>325</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8649,7 +8650,7 @@
         <v>328</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8666,7 +8667,7 @@
         <v>331</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8683,7 +8684,7 @@
         <v>334</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8700,7 +8701,7 @@
         <v>337</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8717,7 +8718,7 @@
         <v>340</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8734,7 +8735,7 @@
         <v>343</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8751,7 +8752,7 @@
         <v>346</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8768,7 +8769,7 @@
         <v>348</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8785,7 +8786,7 @@
         <v>351</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I108" s="42" t="s">
         <v>352</v>
@@ -8793,7 +8794,7 @@
     </row>
     <row r="109" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -8860,7 +8861,7 @@
         <v>359</v>
       </c>
       <c r="E111" s="34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F111" s="20" t="s">
         <v>154</v>
@@ -8888,7 +8889,7 @@
         <v>362</v>
       </c>
       <c r="E112" s="48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F112" s="20" t="s">
         <v>154</v>
@@ -8925,7 +8926,7 @@
         <v>369</v>
       </c>
       <c r="E113" s="48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F113" s="20" t="s">
         <v>154</v>
@@ -8998,7 +8999,7 @@
         <v>380</v>
       </c>
       <c r="E116" s="48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F116" s="20" t="s">
         <v>154</v>
@@ -9059,7 +9060,7 @@
     </row>
     <row r="119" s="45" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B119" s="44"/>
       <c r="C119" s="44"/>
@@ -9124,7 +9125,7 @@
         <v>395</v>
       </c>
       <c r="E122" s="48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F122" s="20" t="s">
         <v>154</v>
@@ -9153,7 +9154,7 @@
         <v>400</v>
       </c>
       <c r="E123" s="48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F123" s="20" t="s">
         <v>154</v>
@@ -9180,7 +9181,7 @@
         <v>403</v>
       </c>
       <c r="E124" s="48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F124" s="20" t="s">
         <v>154</v>
@@ -9195,7 +9196,7 @@
     </row>
     <row r="125" s="45" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B125" s="44"/>
       <c r="C125" s="44"/>
@@ -9580,7 +9581,7 @@
     </row>
     <row r="146" s="55" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="54" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B146" s="54"/>
       <c r="C146" s="54"/>
@@ -9643,7 +9644,7 @@
         <v>486</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F148" s="35" t="s">
         <v>154</v>
@@ -9686,7 +9687,7 @@
         <v>490</v>
       </c>
       <c r="E149" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F149" s="35" t="s">
         <v>154</v>
@@ -9731,7 +9732,7 @@
         <v>403</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F150" s="35" t="s">
         <v>154</v>
@@ -9776,7 +9777,7 @@
         <v>496</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F151" s="35" t="s">
         <v>154</v>
@@ -9814,8 +9815,12 @@
       <c r="B152" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
+      <c r="C152" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
@@ -9844,7 +9849,7 @@
     </row>
     <row r="153" s="70" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B153" s="68" t="s">
         <v>500</v>
@@ -9856,7 +9861,7 @@
         <v>502</v>
       </c>
       <c r="E153" s="68" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F153" s="68"/>
       <c r="G153" s="68"/>
@@ -9897,7 +9902,7 @@
         <v>507</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F154" s="35" t="s">
         <v>154</v>
@@ -9981,7 +9986,7 @@
         <v>515</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F156" s="35" t="s">
         <v>516</v>
@@ -10067,7 +10072,7 @@
         <v>525</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F158" s="35" t="s">
         <v>154</v>
@@ -10139,7 +10144,7 @@
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -10182,7 +10187,7 @@
         <v>531</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F161" s="35" t="s">
         <v>154</v>
@@ -10227,7 +10232,7 @@
         <v>535</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F162" s="35" t="s">
         <v>154</v>
@@ -10301,7 +10306,7 @@
         <v>539</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F164" s="35" t="s">
         <v>154</v>
@@ -10346,7 +10351,7 @@
         <v>543</v>
       </c>
       <c r="E165" s="68" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F165" s="68" t="s">
         <v>154</v>
@@ -10391,7 +10396,7 @@
         <v>403</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F166" s="35" t="s">
         <v>154</v>
@@ -10424,7 +10429,7 @@
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -10522,7 +10527,7 @@
         <v>557</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F170" s="35" t="s">
         <v>154</v>
@@ -10567,7 +10572,7 @@
         <v>560</v>
       </c>
       <c r="E171" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F171" s="35" t="s">
         <v>154</v>
@@ -10612,7 +10617,7 @@
         <v>563</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F172" s="35" t="s">
         <v>154</v>
@@ -10657,7 +10662,7 @@
         <v>566</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F173" s="35" t="s">
         <v>154</v>
@@ -10702,7 +10707,7 @@
         <v>569</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F174" s="35" t="s">
         <v>154</v>
@@ -10747,7 +10752,7 @@
         <v>572</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F175" s="35" t="s">
         <v>154</v>
@@ -10792,7 +10797,7 @@
         <v>574</v>
       </c>
       <c r="E176" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F176" s="35" t="s">
         <v>154</v>
@@ -10837,7 +10842,7 @@
         <v>577</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F177" s="35" t="s">
         <v>154</v>
@@ -10882,7 +10887,7 @@
         <v>580</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F178" s="35" t="s">
         <v>154</v>
@@ -10927,7 +10932,7 @@
         <v>583</v>
       </c>
       <c r="E179" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F179" s="35" t="s">
         <v>154</v>
@@ -10972,7 +10977,7 @@
         <v>586</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F180" s="35" t="s">
         <v>154</v>
@@ -11017,7 +11022,7 @@
         <v>589</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F181" s="35" t="s">
         <v>154</v>
@@ -11062,7 +11067,7 @@
         <v>593</v>
       </c>
       <c r="E182" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F182" s="35" t="s">
         <v>154</v>
@@ -11097,7 +11102,7 @@
     </row>
     <row r="183" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -11181,7 +11186,7 @@
         <v>600</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F185" s="35" t="s">
         <v>154</v>
@@ -11226,7 +11231,7 @@
         <v>603</v>
       </c>
       <c r="E186" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F186" s="35" t="s">
         <v>154</v>
@@ -11271,7 +11276,7 @@
         <v>606</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F187" s="35" t="s">
         <v>154</v>
@@ -11316,7 +11321,7 @@
         <v>609</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F188" s="35" t="s">
         <v>154</v>
@@ -11361,7 +11366,7 @@
         <v>612</v>
       </c>
       <c r="E189" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F189" s="35" t="s">
         <v>154</v>
@@ -11394,16 +11399,16 @@
     </row>
     <row r="190" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>613</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="E190" s="7"/>
       <c r="F190" s="35"/>
@@ -11445,7 +11450,7 @@
         <v>617</v>
       </c>
       <c r="E191" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F191" s="35" t="s">
         <v>154</v>
@@ -11480,7 +11485,7 @@
     </row>
     <row r="192" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -11564,7 +11569,7 @@
         <v>625</v>
       </c>
       <c r="E194" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F194" s="35" t="s">
         <v>154</v>
@@ -11609,7 +11614,7 @@
         <v>628</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F195" s="35" t="s">
         <v>154</v>
@@ -11654,7 +11659,7 @@
         <v>631</v>
       </c>
       <c r="E196" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F196" s="35" t="s">
         <v>154</v>
@@ -11699,7 +11704,7 @@
         <v>634</v>
       </c>
       <c r="E197" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F197" s="35" t="s">
         <v>154</v>
@@ -11744,7 +11749,7 @@
         <v>637</v>
       </c>
       <c r="E198" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F198" s="35" t="s">
         <v>154</v>
@@ -11789,7 +11794,7 @@
         <v>640</v>
       </c>
       <c r="E199" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F199" s="35" t="s">
         <v>154</v>
@@ -11834,7 +11839,7 @@
         <v>643</v>
       </c>
       <c r="E200" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F200" s="35" t="s">
         <v>154</v>
@@ -11879,7 +11884,7 @@
         <v>646</v>
       </c>
       <c r="E201" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F201" s="35" t="s">
         <v>154</v>
@@ -11924,7 +11929,7 @@
         <v>649</v>
       </c>
       <c r="E202" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F202" s="35" t="s">
         <v>154</v>
@@ -11969,7 +11974,7 @@
         <v>652</v>
       </c>
       <c r="E203" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F203" s="35" t="s">
         <v>154</v>
@@ -12002,16 +12007,16 @@
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B204" s="7" t="s">
         <v>653</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="E204" s="7"/>
       <c r="F204" s="35"/>
@@ -12041,7 +12046,7 @@
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -12125,7 +12130,7 @@
         <v>661</v>
       </c>
       <c r="E207" s="68" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F207" s="68" t="s">
         <v>154</v>
@@ -12158,7 +12163,7 @@
     </row>
     <row r="208" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -12242,7 +12247,7 @@
         <v>669</v>
       </c>
       <c r="E210" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F210" s="35" t="s">
         <v>154</v>
@@ -12287,7 +12292,7 @@
         <v>672</v>
       </c>
       <c r="E211" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F211" s="35" t="s">
         <v>154</v>
@@ -12332,7 +12337,7 @@
         <v>675</v>
       </c>
       <c r="E212" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F212" s="35" t="s">
         <v>154</v>
@@ -12377,7 +12382,7 @@
         <v>678</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F213" s="35" t="s">
         <v>154</v>
@@ -12422,7 +12427,7 @@
         <v>681</v>
       </c>
       <c r="E214" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F214" s="35" t="s">
         <v>154</v>
@@ -12467,7 +12472,7 @@
         <v>684</v>
       </c>
       <c r="E215" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F215" s="35" t="s">
         <v>154</v>
@@ -12512,7 +12517,7 @@
         <v>687</v>
       </c>
       <c r="E216" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F216" s="35" t="s">
         <v>154</v>
@@ -12557,7 +12562,7 @@
         <v>690</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F217" s="35" t="s">
         <v>154</v>
@@ -12629,7 +12634,7 @@
     </row>
     <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -12713,7 +12718,7 @@
         <v>702</v>
       </c>
       <c r="E222" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F222" s="35" t="s">
         <v>154</v>
@@ -12744,7 +12749,7 @@
     </row>
     <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B223" s="7" t="s">
         <v>703</v>
@@ -12779,7 +12784,7 @@
     </row>
     <row r="225" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -12863,7 +12868,7 @@
         <v>711</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F227" s="35" t="s">
         <v>154</v>
@@ -12898,7 +12903,7 @@
     </row>
     <row r="228" s="41" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B228" s="38" t="s">
         <v>713</v>
@@ -12949,7 +12954,7 @@
         <v>719</v>
       </c>
       <c r="E229" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F229" s="35" t="s">
         <v>154</v>
@@ -12984,16 +12989,16 @@
     </row>
     <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B230" s="7" t="s">
         <v>721</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="D230" s="21" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="E230" s="7"/>
       <c r="F230" s="35"/>
@@ -13023,7 +13028,7 @@
     </row>
     <row r="231" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -13252,8 +13257,12 @@
       <c r="B237" s="73" t="s">
         <v>740</v>
       </c>
-      <c r="C237" s="73"/>
-      <c r="D237" s="73"/>
+      <c r="C237" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="D237" s="73" t="s">
+        <v>37</v>
+      </c>
       <c r="I237" s="73"/>
     </row>
     <row r="238" s="84" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13757,7 +13766,7 @@
     </row>
     <row r="264" s="74" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="73" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B264" s="73"/>
       <c r="C264" s="73"/>
@@ -13771,8 +13780,12 @@
       <c r="B265" s="73" t="s">
         <v>828</v>
       </c>
-      <c r="C265" s="73"/>
-      <c r="D265" s="73"/>
+      <c r="C265" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="D265" s="73" t="s">
+        <v>37</v>
+      </c>
       <c r="I265" s="73"/>
     </row>
     <row r="266" s="87" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13865,7 +13878,7 @@
     </row>
     <row r="271" s="45" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B271" s="44"/>
       <c r="C271" s="44"/>
@@ -13880,8 +13893,12 @@
       <c r="B272" s="73" t="s">
         <v>847</v>
       </c>
-      <c r="C272" s="73"/>
-      <c r="D272" s="73"/>
+      <c r="C272" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="D272" s="73" t="s">
+        <v>37</v>
+      </c>
       <c r="I272" s="88" t="s">
         <v>848</v>
       </c>
@@ -13905,16 +13922,16 @@
     </row>
     <row r="274" s="90" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="90" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B274" s="90" t="s">
         <v>853</v>
       </c>
       <c r="C274" s="90" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="D274" s="90" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
       <c r="O274" s="90" t="s">
         <v>854</v>
@@ -13956,7 +13973,7 @@
     </row>
     <row r="277" s="45" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B277" s="44"/>
       <c r="C277" s="44"/>
@@ -16619,7 +16636,7 @@
         <v>1074</v>
       </c>
       <c r="E345" s="105" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G345" s="106"/>
       <c r="H345" s="105"/>
@@ -16718,7 +16735,7 @@
     </row>
     <row r="347" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B347" s="4"/>
       <c r="C347" s="4"/>
@@ -17705,7 +17722,7 @@
         <v>1080</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1081</v>
@@ -19209,7 +19226,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.34375" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.3828125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.65"/>
